--- a/files/filtered_data.xlsx
+++ b/files/filtered_data.xlsx
@@ -406,96 +406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>용역 발주계획목록</v>
-      </c>
-      <c r="B1" t="str">
-        <v>__EMPTY</v>
-      </c>
-      <c r="C1" t="str">
-        <v>__EMPTY_1</v>
-      </c>
-      <c r="D1" t="str">
-        <v>__EMPTY_2</v>
-      </c>
-      <c r="E1" t="str">
-        <v>__EMPTY_3</v>
-      </c>
-      <c r="F1" t="str">
-        <v>__EMPTY_4</v>
-      </c>
-      <c r="G1" t="str">
-        <v>__EMPTY_5</v>
-      </c>
-      <c r="H1" t="str">
-        <v>__EMPTY_6</v>
-      </c>
-      <c r="I1" t="str">
-        <v>__EMPTY_7</v>
-      </c>
-      <c r="J1" t="str">
-        <v>__EMPTY_8</v>
-      </c>
-      <c r="K1" t="str">
-        <v>__EMPTY_9</v>
-      </c>
-      <c r="L1" t="str">
-        <v>__EMPTY_10</v>
-      </c>
-      <c r="M1" t="str">
-        <v>__EMPTY_11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C2" t="str">
-        <v>신규1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>한국지역난방기술주식회사</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F2" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G2" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H2" t="str">
-        <v>신규 전원개발 사업 타당성 조사 용역(전력시장분석)</v>
-      </c>
-      <c r="I2" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J2" t="str">
-        <v>67,950,063</v>
-      </c>
-      <c r="K2" t="str">
-        <v>업무지원실</v>
-      </c>
-      <c r="L2" t="str">
-        <v>김재교</v>
-      </c>
-      <c r="M2" t="str">
-        <v>02-3399-6226</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>